--- a/docs/New Codes FY 2023_V1_RMS reviewed.xlsx
+++ b/docs/New Codes FY 2023_V1_RMS reviewed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\o578092\documents\vdw\pmca\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F9A7AB-471A-472E-9D25-66B55A40AAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABD8706-CF6D-43EF-A8BD-0DA9104B1B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1704" yWindow="768" windowWidth="30264" windowHeight="12660" xr2:uid="{A556982B-DFFF-4A60-B8F0-4B8559FF253A}"/>
   </bookViews>
@@ -7560,10 +7560,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1307F026-7A87-4365-9C5D-48A9AB587294}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F1177"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <pane ySplit="5" topLeftCell="A319" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A528" sqref="A528:XFD534"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7596,7 +7598,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7610,7 +7612,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -7624,7 +7626,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -7638,7 +7640,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -7672,7 +7674,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -7886,7 +7888,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -7900,7 +7902,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -7914,7 +7916,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -7928,7 +7930,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -7942,7 +7944,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -7996,7 +7998,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -8110,7 +8112,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -8124,7 +8126,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -8158,7 +8160,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -8172,7 +8174,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -8186,7 +8188,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>68</v>
       </c>
@@ -8200,7 +8202,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -8214,7 +8216,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>72</v>
       </c>
@@ -8228,7 +8230,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>74</v>
       </c>
@@ -8242,7 +8244,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>76</v>
       </c>
@@ -8256,7 +8258,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -8270,7 +8272,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>80</v>
       </c>
@@ -8284,7 +8286,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -8298,7 +8300,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -8312,7 +8314,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>86</v>
       </c>
@@ -8326,7 +8328,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>88</v>
       </c>
@@ -8340,7 +8342,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>90</v>
       </c>
@@ -8354,7 +8356,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>92</v>
       </c>
@@ -8368,7 +8370,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>94</v>
       </c>
@@ -8382,7 +8384,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>96</v>
       </c>
@@ -8396,7 +8398,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>98</v>
       </c>
@@ -8410,7 +8412,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>100</v>
       </c>
@@ -8424,7 +8426,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>102</v>
       </c>
@@ -8438,7 +8440,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>104</v>
       </c>
@@ -8452,7 +8454,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>106</v>
       </c>
@@ -8466,7 +8468,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>108</v>
       </c>
@@ -8480,7 +8482,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>110</v>
       </c>
@@ -9451,7 +9453,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>208</v>
       </c>
@@ -9465,7 +9467,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>210</v>
       </c>
@@ -9479,7 +9481,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>212</v>
       </c>
@@ -9493,7 +9495,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>214</v>
       </c>
@@ -9507,7 +9509,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>216</v>
       </c>
@@ -9521,7 +9523,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>218</v>
       </c>
@@ -9535,7 +9537,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>220</v>
       </c>
@@ -9549,7 +9551,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>222</v>
       </c>
@@ -9563,7 +9565,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>224</v>
       </c>
@@ -9577,7 +9579,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>226</v>
       </c>
@@ -9611,7 +9613,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>230</v>
       </c>
@@ -9845,7 +9847,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>254</v>
       </c>
@@ -9879,7 +9881,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>258</v>
       </c>
@@ -9893,7 +9895,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>260</v>
       </c>
@@ -9907,7 +9909,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>262</v>
       </c>
@@ -9921,7 +9923,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>264</v>
       </c>
@@ -9935,7 +9937,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>266</v>
       </c>
@@ -9949,7 +9951,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>268</v>
       </c>
@@ -9963,7 +9965,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>270</v>
       </c>
@@ -9977,7 +9979,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>272</v>
       </c>
@@ -9991,7 +9993,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>274</v>
       </c>
@@ -10005,7 +10007,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>276</v>
       </c>
@@ -10019,7 +10021,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>278</v>
       </c>
@@ -10033,7 +10035,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>280</v>
       </c>
@@ -10047,7 +10049,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>282</v>
       </c>
@@ -10141,7 +10143,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>292</v>
       </c>
@@ -10155,7 +10157,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>294</v>
       </c>
@@ -10169,7 +10171,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>296</v>
       </c>
@@ -10183,7 +10185,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>298</v>
       </c>
@@ -10197,7 +10199,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>300</v>
       </c>
@@ -10211,7 +10213,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>302</v>
       </c>
@@ -10225,7 +10227,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>304</v>
       </c>
@@ -10239,7 +10241,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>306</v>
       </c>
@@ -10333,7 +10335,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>316</v>
       </c>
@@ -10347,7 +10349,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>318</v>
       </c>
@@ -10361,7 +10363,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>320</v>
       </c>
@@ -10375,7 +10377,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>322</v>
       </c>
@@ -10469,7 +10471,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>332</v>
       </c>
@@ -10483,7 +10485,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>334</v>
       </c>
@@ -10497,7 +10499,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>336</v>
       </c>
@@ -10511,7 +10513,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>338</v>
       </c>
@@ -10585,7 +10587,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>346</v>
       </c>
@@ -10599,7 +10601,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>348</v>
       </c>
@@ -10813,7 +10815,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>370</v>
       </c>
@@ -10827,7 +10829,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>372</v>
       </c>
@@ -10861,7 +10863,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>376</v>
       </c>
@@ -10875,7 +10877,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>378</v>
       </c>
@@ -10889,7 +10891,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>380</v>
       </c>
@@ -10903,7 +10905,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>382</v>
       </c>
@@ -10917,7 +10919,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>384</v>
       </c>
@@ -10931,7 +10933,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>386</v>
       </c>
@@ -10945,7 +10947,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>388</v>
       </c>
@@ -10959,7 +10961,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>390</v>
       </c>
@@ -10973,7 +10975,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>392</v>
       </c>
@@ -10987,7 +10989,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>394</v>
       </c>
@@ -11001,7 +11003,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>396</v>
       </c>
@@ -11015,7 +11017,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>398</v>
       </c>
@@ -11029,7 +11031,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>400</v>
       </c>
@@ -11043,7 +11045,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>402</v>
       </c>
@@ -11057,7 +11059,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>404</v>
       </c>
@@ -11071,7 +11073,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>406</v>
       </c>
@@ -11085,7 +11087,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>408</v>
       </c>
@@ -11099,7 +11101,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>410</v>
       </c>
@@ -11113,7 +11115,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>412</v>
       </c>
@@ -11127,7 +11129,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>414</v>
       </c>
@@ -11141,7 +11143,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>416</v>
       </c>
@@ -11155,7 +11157,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>418</v>
       </c>
@@ -11169,7 +11171,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>420</v>
       </c>
@@ -11183,7 +11185,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>422</v>
       </c>
@@ -11197,7 +11199,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>424</v>
       </c>
@@ -13931,7 +13933,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>698</v>
       </c>
@@ -13945,7 +13947,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>700</v>
       </c>
@@ -13959,7 +13961,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>702</v>
       </c>
@@ -13973,7 +13975,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>704</v>
       </c>
@@ -13987,7 +13989,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>706</v>
       </c>
@@ -14001,7 +14003,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>708</v>
       </c>
@@ -14015,7 +14017,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>710</v>
       </c>
@@ -14029,7 +14031,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>712</v>
       </c>
@@ -14043,7 +14045,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>714</v>
       </c>
@@ -14057,7 +14059,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>716</v>
       </c>
@@ -14071,7 +14073,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>718</v>
       </c>
@@ -14085,7 +14087,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>720</v>
       </c>
@@ -14099,7 +14101,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>722</v>
       </c>
@@ -14113,7 +14115,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>724</v>
       </c>
@@ -14127,7 +14129,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>726</v>
       </c>
@@ -14141,7 +14143,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>728</v>
       </c>
@@ -14155,7 +14157,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>730</v>
       </c>
@@ -14169,7 +14171,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>732</v>
       </c>
@@ -14183,7 +14185,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>734</v>
       </c>
@@ -14197,7 +14199,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>736</v>
       </c>
@@ -14211,7 +14213,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>738</v>
       </c>
@@ -14225,7 +14227,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>740</v>
       </c>
@@ -14239,7 +14241,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>742</v>
       </c>
@@ -14253,7 +14255,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>744</v>
       </c>
@@ -14267,7 +14269,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>746</v>
       </c>
@@ -14281,7 +14283,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>748</v>
       </c>
@@ -14295,7 +14297,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>750</v>
       </c>
@@ -14309,7 +14311,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>752</v>
       </c>
@@ -14323,7 +14325,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>754</v>
       </c>
@@ -14337,7 +14339,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>756</v>
       </c>
@@ -14351,7 +14353,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>758</v>
       </c>
@@ -14365,7 +14367,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>760</v>
       </c>
@@ -14379,7 +14381,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>762</v>
       </c>
@@ -14393,7 +14395,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>764</v>
       </c>
@@ -14407,7 +14409,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>766</v>
       </c>
@@ -14421,7 +14423,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>768</v>
       </c>
@@ -14435,7 +14437,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>770</v>
       </c>
@@ -14449,7 +14451,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>772</v>
       </c>
@@ -14463,7 +14465,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>774</v>
       </c>
@@ -14477,7 +14479,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>776</v>
       </c>
@@ -14491,7 +14493,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>778</v>
       </c>
@@ -14505,7 +14507,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>780</v>
       </c>
@@ -14519,7 +14521,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>782</v>
       </c>
@@ -14533,7 +14535,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>784</v>
       </c>
@@ -14547,7 +14549,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>786</v>
       </c>
@@ -14561,7 +14563,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>788</v>
       </c>
@@ -14575,7 +14577,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>790</v>
       </c>
@@ -14589,7 +14591,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>792</v>
       </c>
@@ -14603,7 +14605,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>794</v>
       </c>
@@ -14617,7 +14619,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>796</v>
       </c>
@@ -14631,7 +14633,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>798</v>
       </c>
@@ -14645,7 +14647,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>800</v>
       </c>
@@ -14659,7 +14661,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>802</v>
       </c>
@@ -14673,7 +14675,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>804</v>
       </c>
@@ -14687,7 +14689,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>806</v>
       </c>
@@ -14701,7 +14703,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>808</v>
       </c>
@@ -14715,7 +14717,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>810</v>
       </c>
@@ -14729,7 +14731,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>812</v>
       </c>
@@ -14743,7 +14745,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>814</v>
       </c>
@@ -14757,7 +14759,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>816</v>
       </c>
@@ -14771,7 +14773,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>818</v>
       </c>
@@ -14785,7 +14787,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>820</v>
       </c>
@@ -14799,7 +14801,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>822</v>
       </c>
@@ -14813,7 +14815,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>824</v>
       </c>
@@ -14827,7 +14829,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>826</v>
       </c>
@@ -14841,7 +14843,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>828</v>
       </c>
@@ -14855,7 +14857,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>830</v>
       </c>
@@ -14869,7 +14871,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>832</v>
       </c>
@@ -14883,7 +14885,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>834</v>
       </c>
@@ -14897,7 +14899,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>836</v>
       </c>
@@ -14911,7 +14913,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>838</v>
       </c>
@@ -14925,7 +14927,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>840</v>
       </c>
@@ -14939,7 +14941,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>842</v>
       </c>
@@ -14953,7 +14955,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>844</v>
       </c>
@@ -14967,7 +14969,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>846</v>
       </c>
@@ -14981,7 +14983,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>848</v>
       </c>
@@ -14995,7 +14997,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>850</v>
       </c>
@@ -15009,7 +15011,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>852</v>
       </c>
@@ -15023,7 +15025,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>854</v>
       </c>
@@ -15037,7 +15039,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>856</v>
       </c>
@@ -15051,7 +15053,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>858</v>
       </c>
@@ -15065,7 +15067,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>860</v>
       </c>
@@ -15079,7 +15081,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>862</v>
       </c>
@@ -15093,7 +15095,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>864</v>
       </c>
@@ -15107,7 +15109,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>866</v>
       </c>
@@ -15121,7 +15123,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>868</v>
       </c>
@@ -15135,7 +15137,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>870</v>
       </c>
@@ -15149,7 +15151,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>872</v>
       </c>
@@ -15163,7 +15165,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>874</v>
       </c>
@@ -15177,7 +15179,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>876</v>
       </c>
@@ -15191,7 +15193,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>878</v>
       </c>
@@ -15205,7 +15207,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>880</v>
       </c>
@@ -15219,7 +15221,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>882</v>
       </c>
@@ -15233,7 +15235,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>884</v>
       </c>
@@ -15247,7 +15249,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>886</v>
       </c>
@@ -15261,7 +15263,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>888</v>
       </c>
@@ -15275,7 +15277,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>890</v>
       </c>
@@ -15289,7 +15291,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>892</v>
       </c>
@@ -15303,7 +15305,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>894</v>
       </c>
@@ -15317,7 +15319,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>896</v>
       </c>
@@ -15331,7 +15333,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>898</v>
       </c>
@@ -15345,7 +15347,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>900</v>
       </c>
@@ -15359,7 +15361,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>902</v>
       </c>
@@ -15373,7 +15375,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>904</v>
       </c>
@@ -15387,7 +15389,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>906</v>
       </c>
@@ -15401,7 +15403,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>908</v>
       </c>
@@ -15415,7 +15417,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>910</v>
       </c>
@@ -15429,7 +15431,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>912</v>
       </c>
@@ -15443,7 +15445,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>914</v>
       </c>
@@ -15457,7 +15459,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>916</v>
       </c>
@@ -15471,7 +15473,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>918</v>
       </c>
@@ -15485,7 +15487,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>920</v>
       </c>
@@ -15499,7 +15501,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>922</v>
       </c>
@@ -15513,7 +15515,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>924</v>
       </c>
@@ -15527,7 +15529,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>926</v>
       </c>
@@ -15541,7 +15543,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>928</v>
       </c>
@@ -15555,7 +15557,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>930</v>
       </c>
@@ -15569,7 +15571,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>932</v>
       </c>
@@ -15583,7 +15585,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>934</v>
       </c>
@@ -15597,7 +15599,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>936</v>
       </c>
@@ -15611,7 +15613,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>938</v>
       </c>
@@ -15625,7 +15627,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>940</v>
       </c>
@@ -15639,7 +15641,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>942</v>
       </c>
@@ -15653,7 +15655,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>944</v>
       </c>
@@ -15667,7 +15669,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>946</v>
       </c>
@@ -15681,7 +15683,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>948</v>
       </c>
@@ -15695,7 +15697,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>950</v>
       </c>
@@ -15709,7 +15711,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>952</v>
       </c>
@@ -15723,7 +15725,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>954</v>
       </c>
@@ -15737,7 +15739,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>956</v>
       </c>
@@ -15751,7 +15753,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>958</v>
       </c>
@@ -15765,7 +15767,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>960</v>
       </c>
@@ -15779,7 +15781,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>962</v>
       </c>
@@ -15793,7 +15795,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>964</v>
       </c>
@@ -15807,7 +15809,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>966</v>
       </c>
@@ -15821,7 +15823,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>968</v>
       </c>
@@ -15835,7 +15837,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>970</v>
       </c>
@@ -15849,7 +15851,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>972</v>
       </c>
@@ -15863,7 +15865,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>974</v>
       </c>
@@ -15877,7 +15879,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>976</v>
       </c>
@@ -15891,7 +15893,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>978</v>
       </c>
@@ -15905,7 +15907,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>980</v>
       </c>
@@ -15919,7 +15921,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>982</v>
       </c>
@@ -15933,7 +15935,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>984</v>
       </c>
@@ -15947,7 +15949,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>986</v>
       </c>
@@ -15961,7 +15963,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>988</v>
       </c>
@@ -15975,7 +15977,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>990</v>
       </c>
@@ -15989,7 +15991,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>992</v>
       </c>
@@ -16003,7 +16005,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>994</v>
       </c>
@@ -16017,7 +16019,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>996</v>
       </c>
@@ -16031,7 +16033,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>998</v>
       </c>
@@ -16045,7 +16047,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>1000</v>
       </c>
@@ -16059,7 +16061,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>1002</v>
       </c>
@@ -16073,7 +16075,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>1004</v>
       </c>
@@ -16087,7 +16089,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>1006</v>
       </c>
@@ -16101,7 +16103,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>1008</v>
       </c>
@@ -16115,7 +16117,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>1010</v>
       </c>
@@ -16129,7 +16131,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>1012</v>
       </c>
@@ -16143,7 +16145,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>1014</v>
       </c>
@@ -16157,7 +16159,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>1016</v>
       </c>
@@ -16171,7 +16173,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>1018</v>
       </c>
@@ -16185,7 +16187,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>1020</v>
       </c>
@@ -16199,7 +16201,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>1022</v>
       </c>
@@ -16213,7 +16215,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>1024</v>
       </c>
@@ -16227,7 +16229,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>1026</v>
       </c>
@@ -16241,7 +16243,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>1028</v>
       </c>
@@ -16255,7 +16257,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>1030</v>
       </c>
@@ -16269,7 +16271,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>1032</v>
       </c>
@@ -16283,7 +16285,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>1034</v>
       </c>
@@ -16297,7 +16299,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>1036</v>
       </c>
@@ -16311,7 +16313,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>1038</v>
       </c>
@@ -16325,7 +16327,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>1040</v>
       </c>
@@ -16339,7 +16341,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>1042</v>
       </c>
@@ -16353,7 +16355,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>1044</v>
       </c>
@@ -16367,7 +16369,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>1046</v>
       </c>
@@ -16381,7 +16383,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>1048</v>
       </c>
@@ -16395,7 +16397,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>1050</v>
       </c>
@@ -16429,7 +16431,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>1054</v>
       </c>
@@ -16443,7 +16445,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>1056</v>
       </c>
@@ -16457,7 +16459,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>1058</v>
       </c>
@@ -16471,7 +16473,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>1060</v>
       </c>
@@ -16525,7 +16527,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>1066</v>
       </c>
@@ -16859,7 +16861,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>1100</v>
       </c>
@@ -16873,7 +16875,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>1102</v>
       </c>
@@ -16887,7 +16889,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>1104</v>
       </c>
@@ -16901,7 +16903,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>1106</v>
       </c>
@@ -16915,7 +16917,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>1108</v>
       </c>
@@ -16929,7 +16931,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>1110</v>
       </c>
@@ -16943,7 +16945,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>1112</v>
       </c>
@@ -16957,7 +16959,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>1114</v>
       </c>
@@ -16971,7 +16973,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>1116</v>
       </c>
@@ -16985,7 +16987,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>1118</v>
       </c>
@@ -16999,7 +17001,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>1120</v>
       </c>
@@ -17013,7 +17015,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>1122</v>
       </c>
@@ -17027,7 +17029,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>1124</v>
       </c>
@@ -17041,7 +17043,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>1126</v>
       </c>
@@ -17055,7 +17057,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>1128</v>
       </c>
@@ -17069,7 +17071,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>1130</v>
       </c>
@@ -17083,7 +17085,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>1132</v>
       </c>
@@ -17097,7 +17099,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>1134</v>
       </c>
@@ -17111,7 +17113,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>1136</v>
       </c>
@@ -17125,7 +17127,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>1138</v>
       </c>
@@ -17139,7 +17141,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>1140</v>
       </c>
@@ -17153,7 +17155,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>1142</v>
       </c>
@@ -17167,7 +17169,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>1144</v>
       </c>
@@ -17181,7 +17183,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>1146</v>
       </c>
@@ -17195,7 +17197,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>1148</v>
       </c>
@@ -17209,7 +17211,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>1150</v>
       </c>
@@ -17223,7 +17225,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>1152</v>
       </c>
@@ -17237,7 +17239,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>1154</v>
       </c>
@@ -17251,7 +17253,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>1156</v>
       </c>
@@ -17265,7 +17267,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>1158</v>
       </c>
@@ -17279,7 +17281,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>1160</v>
       </c>
@@ -17293,7 +17295,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>1162</v>
       </c>
@@ -17307,7 +17309,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>1164</v>
       </c>
@@ -17321,7 +17323,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>1166</v>
       </c>
@@ -17335,7 +17337,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>1168</v>
       </c>
@@ -17349,7 +17351,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>1170</v>
       </c>
@@ -17363,7 +17365,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>1172</v>
       </c>
@@ -17377,7 +17379,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>1174</v>
       </c>
@@ -17391,7 +17393,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>1176</v>
       </c>
@@ -17405,7 +17407,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>1178</v>
       </c>
@@ -17419,7 +17421,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>1180</v>
       </c>
@@ -17433,7 +17435,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>1182</v>
       </c>
@@ -17447,7 +17449,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>1184</v>
       </c>
@@ -17461,7 +17463,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>1186</v>
       </c>
@@ -17475,7 +17477,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>1188</v>
       </c>
@@ -17489,7 +17491,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>1190</v>
       </c>
@@ -17503,7 +17505,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>1192</v>
       </c>
@@ -17517,7 +17519,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>1194</v>
       </c>
@@ -17531,7 +17533,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>1196</v>
       </c>
@@ -17545,7 +17547,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>1198</v>
       </c>
@@ -17559,7 +17561,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>1200</v>
       </c>
@@ -17573,7 +17575,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>1202</v>
       </c>
@@ -17587,7 +17589,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>1204</v>
       </c>
@@ -17601,7 +17603,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>1206</v>
       </c>
@@ -17615,7 +17617,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>1208</v>
       </c>
@@ -17629,7 +17631,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>1210</v>
       </c>
@@ -17643,7 +17645,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>1212</v>
       </c>
@@ -17657,7 +17659,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>1214</v>
       </c>
@@ -17671,7 +17673,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>1216</v>
       </c>
@@ -17685,7 +17687,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>1218</v>
       </c>
@@ -17699,7 +17701,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>1220</v>
       </c>
@@ -17713,7 +17715,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>1222</v>
       </c>
@@ -17727,7 +17729,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>1224</v>
       </c>
@@ -17741,7 +17743,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>1226</v>
       </c>
@@ -17755,7 +17757,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>1228</v>
       </c>
@@ -17769,7 +17771,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>1230</v>
       </c>
@@ -17783,7 +17785,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>1232</v>
       </c>
@@ -17797,7 +17799,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>1234</v>
       </c>
@@ -17811,7 +17813,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>1236</v>
       </c>
@@ -17825,7 +17827,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>1238</v>
       </c>
@@ -17839,7 +17841,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>1240</v>
       </c>
@@ -17853,7 +17855,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>1242</v>
       </c>
@@ -17867,7 +17869,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>1244</v>
       </c>
@@ -17881,7 +17883,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>1246</v>
       </c>
@@ -17895,7 +17897,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>1248</v>
       </c>
@@ -17909,7 +17911,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>1250</v>
       </c>
@@ -17923,7 +17925,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>1252</v>
       </c>
@@ -17937,7 +17939,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>1254</v>
       </c>
@@ -17951,7 +17953,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>1256</v>
       </c>
@@ -17965,7 +17967,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="631" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>1258</v>
       </c>
@@ -17979,7 +17981,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="632" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>1260</v>
       </c>
@@ -17993,7 +17995,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="633" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>1262</v>
       </c>
@@ -18007,7 +18009,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="634" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>1264</v>
       </c>
@@ -18021,7 +18023,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="635" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>1266</v>
       </c>
@@ -18035,7 +18037,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="636" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>1268</v>
       </c>
@@ -18049,7 +18051,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="637" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>1270</v>
       </c>
@@ -18063,7 +18065,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="638" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>1272</v>
       </c>
@@ -18077,7 +18079,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="639" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>1274</v>
       </c>
@@ -18091,7 +18093,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="640" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>1276</v>
       </c>
@@ -18105,7 +18107,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="641" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>1278</v>
       </c>
@@ -18119,7 +18121,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="642" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>1280</v>
       </c>
@@ -18133,7 +18135,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="643" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>1282</v>
       </c>
@@ -18147,7 +18149,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="644" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>1284</v>
       </c>
@@ -18161,7 +18163,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="645" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>1286</v>
       </c>
@@ -18175,7 +18177,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="646" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>1288</v>
       </c>
@@ -18189,7 +18191,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="647" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>1290</v>
       </c>
@@ -18203,7 +18205,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="648" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>1292</v>
       </c>
@@ -18217,7 +18219,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="649" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>1294</v>
       </c>
@@ -18231,7 +18233,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="650" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>1296</v>
       </c>
@@ -18245,7 +18247,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="651" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>1298</v>
       </c>
@@ -18259,7 +18261,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="652" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>1300</v>
       </c>
@@ -18273,7 +18275,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="653" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>1302</v>
       </c>
@@ -18287,7 +18289,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="654" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>1304</v>
       </c>
@@ -18301,7 +18303,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="655" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>1306</v>
       </c>
@@ -18315,7 +18317,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="656" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>1308</v>
       </c>
@@ -18329,7 +18331,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="657" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>1310</v>
       </c>
@@ -18343,7 +18345,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="658" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>1312</v>
       </c>
@@ -18357,7 +18359,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="659" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>1314</v>
       </c>
@@ -18371,7 +18373,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="660" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>1316</v>
       </c>
@@ -18385,7 +18387,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="661" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>1318</v>
       </c>
@@ -18399,7 +18401,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="662" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>1320</v>
       </c>
@@ -18413,7 +18415,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="663" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>1322</v>
       </c>
@@ -18427,7 +18429,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="664" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>1324</v>
       </c>
@@ -18441,7 +18443,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="665" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>1326</v>
       </c>
@@ -18455,7 +18457,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="666" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>1328</v>
       </c>
@@ -18469,7 +18471,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="667" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>1330</v>
       </c>
@@ -18483,7 +18485,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="668" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>1332</v>
       </c>
@@ -18497,7 +18499,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="669" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>1334</v>
       </c>
@@ -18511,7 +18513,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="670" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>1336</v>
       </c>
@@ -18525,7 +18527,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="671" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>1338</v>
       </c>
@@ -18539,7 +18541,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="672" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>1340</v>
       </c>
@@ -18553,7 +18555,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="673" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>1342</v>
       </c>
@@ -18567,7 +18569,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="674" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>1344</v>
       </c>
@@ -18581,7 +18583,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="675" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>1346</v>
       </c>
@@ -18595,7 +18597,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="676" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>1348</v>
       </c>
@@ -18609,7 +18611,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="677" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>1350</v>
       </c>
@@ -18623,7 +18625,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="678" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>1352</v>
       </c>
@@ -18637,7 +18639,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="679" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>1354</v>
       </c>
@@ -18651,7 +18653,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="680" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>1356</v>
       </c>
@@ -18665,7 +18667,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="681" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>1358</v>
       </c>
@@ -18679,7 +18681,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="682" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>1360</v>
       </c>
@@ -18693,7 +18695,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="683" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>1362</v>
       </c>
@@ -18707,7 +18709,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="684" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>1364</v>
       </c>
@@ -18721,7 +18723,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="685" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>1366</v>
       </c>
@@ -18735,7 +18737,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="686" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>1368</v>
       </c>
@@ -18749,7 +18751,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="687" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>1370</v>
       </c>
@@ -18763,7 +18765,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="688" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>1372</v>
       </c>
@@ -18777,7 +18779,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="689" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>1374</v>
       </c>
@@ -18791,7 +18793,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="690" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>1376</v>
       </c>
@@ -18805,7 +18807,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="691" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>1378</v>
       </c>
@@ -18819,7 +18821,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="692" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>1380</v>
       </c>
@@ -18833,7 +18835,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="693" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>1382</v>
       </c>
@@ -18847,7 +18849,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="694" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>1384</v>
       </c>
@@ -18861,7 +18863,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="695" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>1386</v>
       </c>
@@ -18875,7 +18877,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="696" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>1388</v>
       </c>
@@ -18889,7 +18891,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="697" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>1390</v>
       </c>
@@ -18903,7 +18905,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="698" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>1392</v>
       </c>
@@ -18917,7 +18919,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="699" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>1394</v>
       </c>
@@ -18931,7 +18933,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="700" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>1396</v>
       </c>
@@ -18945,7 +18947,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="701" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
         <v>1398</v>
       </c>
@@ -18959,7 +18961,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="702" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
         <v>1400</v>
       </c>
@@ -18973,7 +18975,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="703" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
         <v>1402</v>
       </c>
@@ -18987,7 +18989,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="704" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
         <v>1404</v>
       </c>
@@ -19001,7 +19003,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="705" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
         <v>1406</v>
       </c>
@@ -19015,7 +19017,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="706" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
         <v>1408</v>
       </c>
@@ -19029,7 +19031,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="707" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
         <v>1410</v>
       </c>
@@ -19043,7 +19045,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="708" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
         <v>1412</v>
       </c>
@@ -19057,7 +19059,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="709" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
         <v>1414</v>
       </c>
@@ -19071,7 +19073,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="710" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
         <v>1416</v>
       </c>
@@ -19085,7 +19087,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="711" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
         <v>1418</v>
       </c>
@@ -19099,7 +19101,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="712" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
         <v>1420</v>
       </c>
@@ -19113,7 +19115,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="713" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>1422</v>
       </c>
@@ -19127,7 +19129,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="714" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>1424</v>
       </c>
@@ -19141,7 +19143,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="715" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
         <v>1426</v>
       </c>
@@ -19155,7 +19157,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="716" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
         <v>1428</v>
       </c>
@@ -19169,7 +19171,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="717" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
         <v>1430</v>
       </c>
@@ -19183,7 +19185,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="718" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
         <v>1432</v>
       </c>
@@ -19197,7 +19199,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="719" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
         <v>1434</v>
       </c>
@@ -19211,7 +19213,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="720" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
         <v>1436</v>
       </c>
@@ -19225,7 +19227,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="721" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
         <v>1438</v>
       </c>
@@ -19239,7 +19241,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="722" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
         <v>1440</v>
       </c>
@@ -19253,7 +19255,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="723" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
         <v>1442</v>
       </c>
@@ -19267,7 +19269,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="724" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
         <v>1444</v>
       </c>
@@ -19281,7 +19283,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="725" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
         <v>1446</v>
       </c>
@@ -19295,7 +19297,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="726" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
         <v>1448</v>
       </c>
@@ -19309,7 +19311,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="727" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
         <v>1450</v>
       </c>
@@ -19323,7 +19325,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="728" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
         <v>1452</v>
       </c>
@@ -19337,7 +19339,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="729" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
         <v>1454</v>
       </c>
@@ -19351,7 +19353,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="730" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
         <v>1456</v>
       </c>
@@ -19365,7 +19367,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="731" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
         <v>1458</v>
       </c>
@@ -19379,7 +19381,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="732" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
         <v>1460</v>
       </c>
@@ -19393,7 +19395,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="733" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
         <v>1462</v>
       </c>
@@ -19407,7 +19409,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="734" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
         <v>1464</v>
       </c>
@@ -19421,7 +19423,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="735" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
         <v>1466</v>
       </c>
@@ -19435,7 +19437,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="736" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
         <v>1468</v>
       </c>
@@ -19449,7 +19451,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="737" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
         <v>1470</v>
       </c>
@@ -19463,7 +19465,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="738" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
         <v>1472</v>
       </c>
@@ -19477,7 +19479,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="739" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
         <v>1474</v>
       </c>
@@ -19491,7 +19493,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="740" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
         <v>1476</v>
       </c>
@@ -19505,7 +19507,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="741" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
         <v>1478</v>
       </c>
@@ -19519,7 +19521,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="742" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
         <v>1480</v>
       </c>
@@ -19533,7 +19535,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="743" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
         <v>1482</v>
       </c>
@@ -19547,7 +19549,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="744" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
         <v>1484</v>
       </c>
@@ -19561,7 +19563,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="745" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
         <v>1486</v>
       </c>
@@ -19575,7 +19577,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="746" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
         <v>1488</v>
       </c>
@@ -19589,7 +19591,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="747" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
         <v>1490</v>
       </c>
@@ -19603,7 +19605,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="748" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
         <v>1492</v>
       </c>
@@ -19617,7 +19619,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="749" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
         <v>1494</v>
       </c>
@@ -19631,7 +19633,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="750" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
         <v>1496</v>
       </c>
@@ -19645,7 +19647,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="751" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
         <v>1498</v>
       </c>
@@ -19659,7 +19661,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="752" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
         <v>1500</v>
       </c>
@@ -19673,7 +19675,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="753" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
         <v>1502</v>
       </c>
@@ -19687,7 +19689,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="754" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
         <v>1504</v>
       </c>
@@ -19701,7 +19703,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="755" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
         <v>1506</v>
       </c>
@@ -19715,7 +19717,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="756" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
         <v>1508</v>
       </c>
@@ -19729,7 +19731,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="757" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
         <v>1510</v>
       </c>
@@ -19743,7 +19745,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="758" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
         <v>1512</v>
       </c>
@@ -19757,7 +19759,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="759" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
         <v>1514</v>
       </c>
@@ -19771,7 +19773,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="760" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
         <v>1516</v>
       </c>
@@ -19785,7 +19787,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="761" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
         <v>1518</v>
       </c>
@@ -19799,7 +19801,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="762" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
         <v>1520</v>
       </c>
@@ -19813,7 +19815,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="763" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
         <v>1522</v>
       </c>
@@ -19827,7 +19829,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="764" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
         <v>1524</v>
       </c>
@@ -19841,7 +19843,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="765" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
         <v>1526</v>
       </c>
@@ -19855,7 +19857,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="766" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
         <v>1528</v>
       </c>
@@ -19869,7 +19871,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="767" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
         <v>1530</v>
       </c>
@@ -19883,7 +19885,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="768" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
         <v>1532</v>
       </c>
@@ -19897,7 +19899,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="769" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
         <v>1534</v>
       </c>
@@ -19911,7 +19913,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="770" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
         <v>1536</v>
       </c>
@@ -19925,7 +19927,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="771" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
         <v>1538</v>
       </c>
@@ -19939,7 +19941,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="772" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
         <v>1540</v>
       </c>
@@ -19953,7 +19955,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="773" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
         <v>1542</v>
       </c>
@@ -19967,7 +19969,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="774" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
         <v>1544</v>
       </c>
@@ -19981,7 +19983,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="775" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
         <v>1546</v>
       </c>
@@ -19995,7 +19997,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="776" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
         <v>1548</v>
       </c>
@@ -20009,7 +20011,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="777" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
         <v>1550</v>
       </c>
@@ -20023,7 +20025,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="778" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
         <v>1552</v>
       </c>
@@ -20037,7 +20039,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="779" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
         <v>1554</v>
       </c>
@@ -20051,7 +20053,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="780" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
         <v>1556</v>
       </c>
@@ -20065,7 +20067,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="781" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
         <v>1558</v>
       </c>
@@ -20079,7 +20081,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="782" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
         <v>1560</v>
       </c>
@@ -20093,7 +20095,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="783" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
         <v>1562</v>
       </c>
@@ -20107,7 +20109,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="784" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
         <v>1564</v>
       </c>
@@ -20121,7 +20123,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="785" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
         <v>1566</v>
       </c>
@@ -20135,7 +20137,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="786" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
         <v>1568</v>
       </c>
@@ -20149,7 +20151,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="787" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
         <v>1570</v>
       </c>
@@ -20163,7 +20165,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="788" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
         <v>1572</v>
       </c>
@@ -20177,7 +20179,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="789" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
         <v>1574</v>
       </c>
@@ -20191,7 +20193,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="790" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
         <v>1576</v>
       </c>
@@ -20205,7 +20207,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="791" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
         <v>1578</v>
       </c>
@@ -20219,7 +20221,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="792" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
         <v>1580</v>
       </c>
@@ -20233,7 +20235,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="793" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
         <v>1582</v>
       </c>
@@ -20247,7 +20249,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="794" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
         <v>1584</v>
       </c>
@@ -20261,7 +20263,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="795" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
         <v>1586</v>
       </c>
@@ -20275,7 +20277,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="796" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
         <v>1588</v>
       </c>
@@ -20289,7 +20291,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="797" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
         <v>1590</v>
       </c>
@@ -20303,7 +20305,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="798" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
         <v>1592</v>
       </c>
@@ -20317,7 +20319,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="799" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
         <v>1594</v>
       </c>
@@ -20331,7 +20333,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="800" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
         <v>1596</v>
       </c>
@@ -20345,7 +20347,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="801" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
         <v>1598</v>
       </c>
@@ -20359,7 +20361,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="802" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
         <v>1600</v>
       </c>
@@ -20373,7 +20375,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="803" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
         <v>1602</v>
       </c>
@@ -20387,7 +20389,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="804" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
         <v>1604</v>
       </c>
@@ -20401,7 +20403,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="805" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
         <v>1606</v>
       </c>
@@ -20415,7 +20417,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="806" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
         <v>1608</v>
       </c>
@@ -20429,7 +20431,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="807" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
         <v>1610</v>
       </c>
@@ -20443,7 +20445,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="808" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
         <v>1612</v>
       </c>
@@ -20457,7 +20459,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="809" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
         <v>1614</v>
       </c>
@@ -20471,7 +20473,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="810" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
         <v>1616</v>
       </c>
@@ -20485,7 +20487,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="811" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
         <v>1618</v>
       </c>
@@ -20499,7 +20501,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="812" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
         <v>1620</v>
       </c>
@@ -20513,7 +20515,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="813" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
         <v>1622</v>
       </c>
@@ -20527,7 +20529,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="814" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
         <v>1624</v>
       </c>
@@ -20541,7 +20543,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="815" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
         <v>1626</v>
       </c>
@@ -20555,7 +20557,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="816" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
         <v>1628</v>
       </c>
@@ -20569,7 +20571,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="817" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
         <v>1630</v>
       </c>
@@ -20583,7 +20585,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="818" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
         <v>1632</v>
       </c>
@@ -20597,7 +20599,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="819" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
         <v>1634</v>
       </c>
@@ -20611,7 +20613,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="820" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
         <v>1636</v>
       </c>
@@ -20625,7 +20627,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="821" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
         <v>1638</v>
       </c>
@@ -20639,7 +20641,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="822" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
         <v>1640</v>
       </c>
@@ -20653,7 +20655,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="823" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
         <v>1642</v>
       </c>
@@ -20667,7 +20669,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="824" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
         <v>1644</v>
       </c>
@@ -20681,7 +20683,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="825" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
         <v>1646</v>
       </c>
@@ -20695,7 +20697,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="826" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
         <v>1648</v>
       </c>
@@ -20709,7 +20711,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="827" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
         <v>1650</v>
       </c>
@@ -20723,7 +20725,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="828" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
         <v>1652</v>
       </c>
@@ -20737,7 +20739,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="829" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
         <v>1654</v>
       </c>
@@ -20751,7 +20753,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="830" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
         <v>1656</v>
       </c>
@@ -20765,7 +20767,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="831" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
         <v>1658</v>
       </c>
@@ -20779,7 +20781,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="832" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
         <v>1660</v>
       </c>
@@ -20793,7 +20795,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="833" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
         <v>1662</v>
       </c>
@@ -20807,7 +20809,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="834" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
         <v>1664</v>
       </c>
@@ -20821,7 +20823,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="835" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A835" t="s">
         <v>1666</v>
       </c>
@@ -20835,7 +20837,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="836" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
         <v>1668</v>
       </c>
@@ -20849,7 +20851,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="837" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
         <v>1670</v>
       </c>
@@ -20863,7 +20865,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="838" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
         <v>1672</v>
       </c>
@@ -20877,7 +20879,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="839" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
         <v>1674</v>
       </c>
@@ -20891,7 +20893,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="840" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A840" t="s">
         <v>1676</v>
       </c>
@@ -20905,7 +20907,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="841" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A841" t="s">
         <v>1678</v>
       </c>
@@ -20919,7 +20921,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="842" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A842" t="s">
         <v>1680</v>
       </c>
@@ -20933,7 +20935,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="843" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
         <v>1682</v>
       </c>
@@ -20947,7 +20949,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="844" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
         <v>1684</v>
       </c>
@@ -20961,7 +20963,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="845" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
         <v>1686</v>
       </c>
@@ -20975,7 +20977,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="846" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A846" t="s">
         <v>1688</v>
       </c>
@@ -20989,7 +20991,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="847" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
         <v>1690</v>
       </c>
@@ -21003,7 +21005,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="848" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A848" t="s">
         <v>1692</v>
       </c>
@@ -21017,7 +21019,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="849" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A849" t="s">
         <v>1694</v>
       </c>
@@ -21031,7 +21033,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="850" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A850" t="s">
         <v>1696</v>
       </c>
@@ -21045,7 +21047,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="851" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A851" t="s">
         <v>1698</v>
       </c>
@@ -21059,7 +21061,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="852" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A852" t="s">
         <v>1700</v>
       </c>
@@ -21073,7 +21075,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="853" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A853" t="s">
         <v>1702</v>
       </c>
@@ -21087,7 +21089,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="854" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A854" t="s">
         <v>1704</v>
       </c>
@@ -21101,7 +21103,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="855" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A855" t="s">
         <v>1706</v>
       </c>
@@ -21115,7 +21117,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="856" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A856" t="s">
         <v>1708</v>
       </c>
@@ -21129,7 +21131,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="857" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A857" t="s">
         <v>1710</v>
       </c>
@@ -21143,7 +21145,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="858" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A858" t="s">
         <v>1712</v>
       </c>
@@ -21157,7 +21159,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="859" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A859" t="s">
         <v>1714</v>
       </c>
@@ -21171,7 +21173,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="860" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A860" t="s">
         <v>1716</v>
       </c>
@@ -21185,7 +21187,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="861" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A861" t="s">
         <v>1718</v>
       </c>
@@ -21199,7 +21201,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="862" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A862" t="s">
         <v>1720</v>
       </c>
@@ -21213,7 +21215,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="863" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A863" t="s">
         <v>1722</v>
       </c>
@@ -21227,7 +21229,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="864" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A864" t="s">
         <v>1724</v>
       </c>
@@ -21241,7 +21243,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="865" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A865" t="s">
         <v>1726</v>
       </c>
@@ -21255,7 +21257,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="866" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A866" t="s">
         <v>1728</v>
       </c>
@@ -21269,7 +21271,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="867" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A867" t="s">
         <v>1730</v>
       </c>
@@ -21283,7 +21285,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="868" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A868" t="s">
         <v>1732</v>
       </c>
@@ -21297,7 +21299,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="869" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A869" t="s">
         <v>1734</v>
       </c>
@@ -21311,7 +21313,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="870" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A870" t="s">
         <v>1736</v>
       </c>
@@ -21325,7 +21327,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="871" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A871" t="s">
         <v>1738</v>
       </c>
@@ -21339,7 +21341,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="872" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A872" t="s">
         <v>1740</v>
       </c>
@@ -21353,7 +21355,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="873" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A873" t="s">
         <v>1742</v>
       </c>
@@ -21367,7 +21369,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="874" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A874" t="s">
         <v>1744</v>
       </c>
@@ -21381,7 +21383,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="875" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A875" t="s">
         <v>1746</v>
       </c>
@@ -21395,7 +21397,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="876" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A876" t="s">
         <v>1748</v>
       </c>
@@ -21409,7 +21411,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="877" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A877" t="s">
         <v>1750</v>
       </c>
@@ -21423,7 +21425,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="878" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A878" t="s">
         <v>1752</v>
       </c>
@@ -21437,7 +21439,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="879" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A879" t="s">
         <v>1754</v>
       </c>
@@ -21451,7 +21453,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="880" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A880" t="s">
         <v>1756</v>
       </c>
@@ -21465,7 +21467,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="881" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A881" t="s">
         <v>1758</v>
       </c>
@@ -21479,7 +21481,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="882" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A882" t="s">
         <v>1760</v>
       </c>
@@ -21493,7 +21495,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="883" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A883" t="s">
         <v>1762</v>
       </c>
@@ -21507,7 +21509,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="884" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A884" t="s">
         <v>1764</v>
       </c>
@@ -21521,7 +21523,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="885" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A885" t="s">
         <v>1766</v>
       </c>
@@ -21535,7 +21537,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="886" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A886" t="s">
         <v>1768</v>
       </c>
@@ -21549,7 +21551,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="887" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A887" t="s">
         <v>1770</v>
       </c>
@@ -21563,7 +21565,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="888" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A888" t="s">
         <v>1772</v>
       </c>
@@ -21577,7 +21579,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="889" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A889" t="s">
         <v>1774</v>
       </c>
@@ -21591,7 +21593,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="890" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A890" t="s">
         <v>1776</v>
       </c>
@@ -21605,7 +21607,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="891" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A891" t="s">
         <v>1778</v>
       </c>
@@ -21619,7 +21621,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="892" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A892" t="s">
         <v>1780</v>
       </c>
@@ -21633,7 +21635,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="893" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A893" t="s">
         <v>1782</v>
       </c>
@@ -21647,7 +21649,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="894" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A894" t="s">
         <v>1784</v>
       </c>
@@ -21661,7 +21663,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="895" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A895" t="s">
         <v>1786</v>
       </c>
@@ -21675,7 +21677,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="896" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A896" t="s">
         <v>1788</v>
       </c>
@@ -21689,7 +21691,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="897" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A897" t="s">
         <v>1790</v>
       </c>
@@ -21703,7 +21705,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="898" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A898" t="s">
         <v>1792</v>
       </c>
@@ -21717,7 +21719,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="899" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A899" t="s">
         <v>1794</v>
       </c>
@@ -21731,7 +21733,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="900" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A900" t="s">
         <v>1796</v>
       </c>
@@ -21745,7 +21747,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="901" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A901" t="s">
         <v>1798</v>
       </c>
@@ -21759,7 +21761,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="902" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A902" t="s">
         <v>1800</v>
       </c>
@@ -21773,7 +21775,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="903" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A903" t="s">
         <v>1802</v>
       </c>
@@ -21787,7 +21789,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="904" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A904" t="s">
         <v>1804</v>
       </c>
@@ -21801,7 +21803,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="905" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A905" t="s">
         <v>1806</v>
       </c>
@@ -21815,7 +21817,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="906" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A906" t="s">
         <v>1808</v>
       </c>
@@ -21829,7 +21831,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="907" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A907" t="s">
         <v>1810</v>
       </c>
@@ -21843,7 +21845,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="908" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A908" t="s">
         <v>1812</v>
       </c>
@@ -21857,7 +21859,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="909" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A909" t="s">
         <v>1814</v>
       </c>
@@ -21871,7 +21873,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="910" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A910" t="s">
         <v>1816</v>
       </c>
@@ -21885,7 +21887,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="911" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A911" t="s">
         <v>1818</v>
       </c>
@@ -21899,7 +21901,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="912" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A912" t="s">
         <v>1820</v>
       </c>
@@ -21913,7 +21915,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="913" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A913" t="s">
         <v>1822</v>
       </c>
@@ -21927,7 +21929,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="914" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A914" t="s">
         <v>1824</v>
       </c>
@@ -21941,7 +21943,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="915" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A915" t="s">
         <v>1826</v>
       </c>
@@ -21955,7 +21957,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="916" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A916" t="s">
         <v>1828</v>
       </c>
@@ -21969,7 +21971,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="917" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A917" t="s">
         <v>1830</v>
       </c>
@@ -21983,7 +21985,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="918" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A918" t="s">
         <v>1832</v>
       </c>
@@ -21997,7 +21999,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="919" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A919" t="s">
         <v>1834</v>
       </c>
@@ -22011,7 +22013,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="920" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A920" t="s">
         <v>1836</v>
       </c>
@@ -22025,7 +22027,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="921" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A921" t="s">
         <v>1838</v>
       </c>
@@ -22039,7 +22041,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="922" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A922" t="s">
         <v>1840</v>
       </c>
@@ -22053,7 +22055,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="923" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A923" t="s">
         <v>1842</v>
       </c>
@@ -22067,7 +22069,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="924" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A924" t="s">
         <v>1844</v>
       </c>
@@ -22081,7 +22083,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="925" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A925" t="s">
         <v>1846</v>
       </c>
@@ -22095,7 +22097,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="926" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A926" t="s">
         <v>1848</v>
       </c>
@@ -22109,7 +22111,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="927" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A927" t="s">
         <v>1850</v>
       </c>
@@ -22123,7 +22125,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="928" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A928" t="s">
         <v>1852</v>
       </c>
@@ -22137,7 +22139,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="929" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A929" t="s">
         <v>1854</v>
       </c>
@@ -22151,7 +22153,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="930" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A930" t="s">
         <v>1856</v>
       </c>
@@ -22165,7 +22167,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="931" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A931" t="s">
         <v>1858</v>
       </c>
@@ -22179,7 +22181,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="932" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A932" t="s">
         <v>1860</v>
       </c>
@@ -22193,7 +22195,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="933" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A933" t="s">
         <v>1862</v>
       </c>
@@ -22207,7 +22209,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="934" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A934" t="s">
         <v>1864</v>
       </c>
@@ -22221,7 +22223,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="935" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A935" t="s">
         <v>1866</v>
       </c>
@@ -22235,7 +22237,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="936" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A936" t="s">
         <v>1868</v>
       </c>
@@ -22249,7 +22251,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="937" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A937" t="s">
         <v>1870</v>
       </c>
@@ -22263,7 +22265,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="938" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A938" t="s">
         <v>1872</v>
       </c>
@@ -22277,7 +22279,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="939" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A939" t="s">
         <v>1874</v>
       </c>
@@ -22291,7 +22293,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="940" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A940" t="s">
         <v>1876</v>
       </c>
@@ -22305,7 +22307,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="941" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A941" t="s">
         <v>1878</v>
       </c>
@@ -22319,7 +22321,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="942" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A942" t="s">
         <v>1880</v>
       </c>
@@ -22333,7 +22335,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="943" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A943" t="s">
         <v>1882</v>
       </c>
@@ -22347,7 +22349,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="944" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A944" t="s">
         <v>1884</v>
       </c>
@@ -22361,7 +22363,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="945" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A945" t="s">
         <v>1886</v>
       </c>
@@ -22375,7 +22377,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="946" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A946" t="s">
         <v>1888</v>
       </c>
@@ -22389,7 +22391,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="947" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A947" t="s">
         <v>1890</v>
       </c>
@@ -22403,7 +22405,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="948" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A948" t="s">
         <v>1892</v>
       </c>
@@ -22417,7 +22419,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="949" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A949" t="s">
         <v>1894</v>
       </c>
@@ -22431,7 +22433,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="950" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A950" t="s">
         <v>1896</v>
       </c>
@@ -22445,7 +22447,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="951" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A951" t="s">
         <v>1898</v>
       </c>
@@ -22459,7 +22461,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="952" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A952" t="s">
         <v>1900</v>
       </c>
@@ -22473,7 +22475,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="953" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A953" t="s">
         <v>1902</v>
       </c>
@@ -22487,7 +22489,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="954" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A954" t="s">
         <v>1904</v>
       </c>
@@ -22501,7 +22503,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="955" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A955" t="s">
         <v>1906</v>
       </c>
@@ -22515,7 +22517,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="956" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A956" t="s">
         <v>1908</v>
       </c>
@@ -22529,7 +22531,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="957" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A957" t="s">
         <v>1910</v>
       </c>
@@ -22543,7 +22545,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="958" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A958" t="s">
         <v>1912</v>
       </c>
@@ -22557,7 +22559,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="959" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A959" t="s">
         <v>1914</v>
       </c>
@@ -22571,7 +22573,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="960" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A960" t="s">
         <v>1916</v>
       </c>
@@ -22585,7 +22587,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="961" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A961" t="s">
         <v>1918</v>
       </c>
@@ -22599,7 +22601,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="962" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A962" t="s">
         <v>1920</v>
       </c>
@@ -22613,7 +22615,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="963" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A963" t="s">
         <v>1922</v>
       </c>
@@ -22627,7 +22629,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="964" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A964" t="s">
         <v>1924</v>
       </c>
@@ -22641,7 +22643,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="965" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A965" t="s">
         <v>1926</v>
       </c>
@@ -22655,7 +22657,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="966" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A966" t="s">
         <v>1928</v>
       </c>
@@ -22669,7 +22671,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="967" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A967" t="s">
         <v>1930</v>
       </c>
@@ -22683,7 +22685,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="968" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A968" t="s">
         <v>1932</v>
       </c>
@@ -22697,7 +22699,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="969" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A969" t="s">
         <v>1934</v>
       </c>
@@ -22711,7 +22713,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="970" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A970" t="s">
         <v>1936</v>
       </c>
@@ -22725,7 +22727,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="971" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A971" t="s">
         <v>1938</v>
       </c>
@@ -22739,7 +22741,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="972" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A972" t="s">
         <v>1940</v>
       </c>
@@ -22753,7 +22755,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="973" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A973" t="s">
         <v>1942</v>
       </c>
@@ -22767,7 +22769,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="974" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A974" t="s">
         <v>1944</v>
       </c>
@@ -22781,7 +22783,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="975" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A975" t="s">
         <v>1946</v>
       </c>
@@ -22795,7 +22797,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="976" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A976" t="s">
         <v>1948</v>
       </c>
@@ -22809,7 +22811,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="977" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A977" t="s">
         <v>1950</v>
       </c>
@@ -22823,7 +22825,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="978" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A978" t="s">
         <v>1952</v>
       </c>
@@ -22837,7 +22839,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="979" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A979" t="s">
         <v>1954</v>
       </c>
@@ -22851,7 +22853,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="980" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A980" t="s">
         <v>1956</v>
       </c>
@@ -22865,7 +22867,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="981" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A981" t="s">
         <v>1958</v>
       </c>
@@ -22879,7 +22881,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="982" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A982" t="s">
         <v>1960</v>
       </c>
@@ -22893,7 +22895,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="983" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A983" t="s">
         <v>1962</v>
       </c>
@@ -22907,7 +22909,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="984" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A984" t="s">
         <v>1964</v>
       </c>
@@ -22921,7 +22923,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="985" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A985" t="s">
         <v>1966</v>
       </c>
@@ -22935,7 +22937,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="986" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A986" t="s">
         <v>1968</v>
       </c>
@@ -22949,7 +22951,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="987" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A987" t="s">
         <v>1970</v>
       </c>
@@ -22963,7 +22965,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="988" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A988" t="s">
         <v>1972</v>
       </c>
@@ -22977,7 +22979,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="989" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A989" t="s">
         <v>1974</v>
       </c>
@@ -22991,7 +22993,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="990" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A990" t="s">
         <v>1976</v>
       </c>
@@ -23005,7 +23007,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="991" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A991" t="s">
         <v>1978</v>
       </c>
@@ -23019,7 +23021,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="992" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A992" t="s">
         <v>1980</v>
       </c>
@@ -23033,7 +23035,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="993" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A993" t="s">
         <v>1982</v>
       </c>
@@ -23047,7 +23049,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="994" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A994" t="s">
         <v>1984</v>
       </c>
@@ -23061,7 +23063,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="995" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A995" t="s">
         <v>1986</v>
       </c>
@@ -23075,7 +23077,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="996" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A996" t="s">
         <v>1988</v>
       </c>
@@ -23089,7 +23091,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="997" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A997" t="s">
         <v>1990</v>
       </c>
@@ -23103,7 +23105,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="998" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A998" t="s">
         <v>1992</v>
       </c>
@@ -23117,7 +23119,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="999" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A999" t="s">
         <v>1994</v>
       </c>
@@ -23131,7 +23133,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1000" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1000" t="s">
         <v>1996</v>
       </c>
@@ -23145,7 +23147,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1001" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1001" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1001" t="s">
         <v>1998</v>
       </c>
@@ -23159,7 +23161,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1002" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1002" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1002" t="s">
         <v>2000</v>
       </c>
@@ -23173,7 +23175,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1003" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1003" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1003" t="s">
         <v>2002</v>
       </c>
@@ -23187,7 +23189,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1004" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1004" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1004" t="s">
         <v>2004</v>
       </c>
@@ -23201,7 +23203,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1005" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1005" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1005" t="s">
         <v>2006</v>
       </c>
@@ -23215,7 +23217,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1006" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1006" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1006" t="s">
         <v>2008</v>
       </c>
@@ -23229,7 +23231,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1007" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1007" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1007" t="s">
         <v>2010</v>
       </c>
@@ -23243,7 +23245,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1008" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1008" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1008" t="s">
         <v>2012</v>
       </c>
@@ -23257,7 +23259,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1009" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1009" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1009" t="s">
         <v>2014</v>
       </c>
@@ -23271,7 +23273,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1010" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1010" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1010" t="s">
         <v>2016</v>
       </c>
@@ -23285,7 +23287,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1011" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1011" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1011" t="s">
         <v>2018</v>
       </c>
@@ -23299,7 +23301,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1012" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1012" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1012" t="s">
         <v>2020</v>
       </c>
@@ -23313,7 +23315,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1013" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1013" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1013" t="s">
         <v>2022</v>
       </c>
@@ -23327,7 +23329,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1014" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1014" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1014" t="s">
         <v>2024</v>
       </c>
@@ -23341,7 +23343,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1015" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1015" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1015" t="s">
         <v>2026</v>
       </c>
@@ -23355,7 +23357,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1016" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1016" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1016" t="s">
         <v>2028</v>
       </c>
@@ -23369,7 +23371,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1017" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1017" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1017" t="s">
         <v>2030</v>
       </c>
@@ -23383,7 +23385,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1018" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1018" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1018" t="s">
         <v>2032</v>
       </c>
@@ -23397,7 +23399,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1019" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1019" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1019" t="s">
         <v>2034</v>
       </c>
@@ -23411,7 +23413,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1020" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1020" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1020" t="s">
         <v>2036</v>
       </c>
@@ -23425,7 +23427,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1021" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1021" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1021" t="s">
         <v>2038</v>
       </c>
@@ -23439,7 +23441,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1022" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1022" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1022" t="s">
         <v>2040</v>
       </c>
@@ -23453,7 +23455,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1023" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1023" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1023" t="s">
         <v>2042</v>
       </c>
@@ -23467,7 +23469,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1024" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1024" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1024" t="s">
         <v>2044</v>
       </c>
@@ -23481,7 +23483,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1025" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1025" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1025" t="s">
         <v>2046</v>
       </c>
@@ -23495,7 +23497,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1026" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1026" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1026" t="s">
         <v>2048</v>
       </c>
@@ -23509,7 +23511,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1027" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1027" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1027" t="s">
         <v>2050</v>
       </c>
@@ -23523,7 +23525,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1028" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1028" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1028" t="s">
         <v>2052</v>
       </c>
@@ -23537,7 +23539,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1029" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1029" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1029" t="s">
         <v>2054</v>
       </c>
@@ -23551,7 +23553,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1030" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1030" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1030" t="s">
         <v>2056</v>
       </c>
@@ -23565,7 +23567,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1031" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1031" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1031" t="s">
         <v>2058</v>
       </c>
@@ -23579,7 +23581,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1032" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1032" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1032" t="s">
         <v>2060</v>
       </c>
@@ -23593,7 +23595,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1033" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1033" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1033" t="s">
         <v>2062</v>
       </c>
@@ -23607,7 +23609,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1034" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1034" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1034" t="s">
         <v>2064</v>
       </c>
@@ -23621,7 +23623,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1035" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1035" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1035" t="s">
         <v>2066</v>
       </c>
@@ -23635,7 +23637,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1036" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1036" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1036" t="s">
         <v>2068</v>
       </c>
@@ -23649,7 +23651,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1037" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1037" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1037" t="s">
         <v>2070</v>
       </c>
@@ -23663,7 +23665,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1038" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1038" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1038" t="s">
         <v>2072</v>
       </c>
@@ -23677,7 +23679,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1039" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1039" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1039" t="s">
         <v>2074</v>
       </c>
@@ -23691,7 +23693,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1040" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1040" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1040" t="s">
         <v>2076</v>
       </c>
@@ -23705,7 +23707,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1041" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1041" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1041" t="s">
         <v>2078</v>
       </c>
@@ -23719,7 +23721,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1042" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1042" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1042" t="s">
         <v>2080</v>
       </c>
@@ -23733,7 +23735,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1043" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1043" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1043" t="s">
         <v>2082</v>
       </c>
@@ -23747,7 +23749,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1044" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1044" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1044" t="s">
         <v>2084</v>
       </c>
@@ -23761,7 +23763,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1045" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1045" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1045" t="s">
         <v>2086</v>
       </c>
@@ -23775,7 +23777,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1046" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1046" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1046" t="s">
         <v>2088</v>
       </c>
@@ -23789,7 +23791,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1047" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1047" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1047" t="s">
         <v>2090</v>
       </c>
@@ -23803,7 +23805,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1048" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1048" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1048" t="s">
         <v>2092</v>
       </c>
@@ -23817,7 +23819,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1049" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1049" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1049" t="s">
         <v>2094</v>
       </c>
@@ -23831,7 +23833,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1050" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1050" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1050" t="s">
         <v>2096</v>
       </c>
@@ -23845,7 +23847,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1051" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1051" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1051" t="s">
         <v>2098</v>
       </c>
@@ -23859,7 +23861,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1052" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1052" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1052" t="s">
         <v>2100</v>
       </c>
@@ -23873,7 +23875,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1053" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1053" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1053" t="s">
         <v>2102</v>
       </c>
@@ -23887,7 +23889,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1054" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1054" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1054" t="s">
         <v>2104</v>
       </c>
@@ -23901,7 +23903,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1055" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1055" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1055" t="s">
         <v>2106</v>
       </c>
@@ -23915,7 +23917,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1056" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1056" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1056" t="s">
         <v>2108</v>
       </c>
@@ -23929,7 +23931,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1057" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1057" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1057" t="s">
         <v>2110</v>
       </c>
@@ -23943,7 +23945,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1058" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1058" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1058" t="s">
         <v>2112</v>
       </c>
@@ -23957,7 +23959,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1059" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1059" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1059" t="s">
         <v>2114</v>
       </c>
@@ -23971,7 +23973,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1060" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1060" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1060" t="s">
         <v>2116</v>
       </c>
@@ -23985,7 +23987,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1061" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1061" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1061" t="s">
         <v>2118</v>
       </c>
@@ -23999,7 +24001,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1062" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1062" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1062" t="s">
         <v>2120</v>
       </c>
@@ -24013,7 +24015,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1063" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1063" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1063" t="s">
         <v>2122</v>
       </c>
@@ -24027,7 +24029,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1064" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1064" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1064" t="s">
         <v>2124</v>
       </c>
@@ -24041,7 +24043,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1065" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1065" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1065" t="s">
         <v>2126</v>
       </c>
@@ -24055,7 +24057,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1066" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1066" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1066" t="s">
         <v>2128</v>
       </c>
@@ -24069,7 +24071,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1067" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1067" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1067" t="s">
         <v>2130</v>
       </c>
@@ -24083,7 +24085,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1068" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1068" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1068" t="s">
         <v>2132</v>
       </c>
@@ -24097,7 +24099,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1069" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1069" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1069" t="s">
         <v>2134</v>
       </c>
@@ -24111,7 +24113,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1070" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1070" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1070" t="s">
         <v>2136</v>
       </c>
@@ -24125,7 +24127,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1071" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1071" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1071" t="s">
         <v>2138</v>
       </c>
@@ -24139,7 +24141,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1072" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1072" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1072" t="s">
         <v>2140</v>
       </c>
@@ -24153,7 +24155,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1073" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1073" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1073" t="s">
         <v>2142</v>
       </c>
@@ -24167,7 +24169,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1074" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1074" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1074" t="s">
         <v>2144</v>
       </c>
@@ -24181,7 +24183,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1075" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1075" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1075" t="s">
         <v>2146</v>
       </c>
@@ -24195,7 +24197,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1076" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1076" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1076" t="s">
         <v>2148</v>
       </c>
@@ -24209,7 +24211,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1077" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1077" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1077" t="s">
         <v>2150</v>
       </c>
@@ -24223,7 +24225,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1078" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1078" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1078" t="s">
         <v>2152</v>
       </c>
@@ -24237,7 +24239,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1079" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1079" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1079" t="s">
         <v>2154</v>
       </c>
@@ -24251,7 +24253,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1080" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1080" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1080" t="s">
         <v>2156</v>
       </c>
@@ -24265,7 +24267,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1081" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1081" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1081" t="s">
         <v>2158</v>
       </c>
@@ -24279,7 +24281,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1082" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1082" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1082" t="s">
         <v>2160</v>
       </c>
@@ -24293,7 +24295,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1083" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1083" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1083" t="s">
         <v>2162</v>
       </c>
@@ -24307,7 +24309,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1084" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1084" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1084" t="s">
         <v>2164</v>
       </c>
@@ -24321,7 +24323,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1085" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1085" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1085" t="s">
         <v>2166</v>
       </c>
@@ -24335,7 +24337,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1086" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1086" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1086" t="s">
         <v>2168</v>
       </c>
@@ -24349,7 +24351,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1087" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1087" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1087" t="s">
         <v>2170</v>
       </c>
@@ -24363,7 +24365,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1088" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1088" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1088" t="s">
         <v>2172</v>
       </c>
@@ -24377,7 +24379,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1089" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1089" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1089" t="s">
         <v>2174</v>
       </c>
@@ -24391,7 +24393,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1090" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1090" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1090" t="s">
         <v>2176</v>
       </c>
@@ -24405,7 +24407,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1091" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1091" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1091" t="s">
         <v>2178</v>
       </c>
@@ -24419,7 +24421,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1092" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1092" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1092" t="s">
         <v>2180</v>
       </c>
@@ -24433,7 +24435,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1093" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1093" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1093" t="s">
         <v>2182</v>
       </c>
@@ -24447,7 +24449,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1094" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1094" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1094" t="s">
         <v>2184</v>
       </c>
@@ -24461,7 +24463,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1095" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1095" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1095" t="s">
         <v>2186</v>
       </c>
@@ -24475,7 +24477,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1096" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1096" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1096" t="s">
         <v>2188</v>
       </c>
@@ -24489,7 +24491,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1097" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1097" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1097" t="s">
         <v>2190</v>
       </c>
@@ -24503,7 +24505,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1098" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1098" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1098" t="s">
         <v>2192</v>
       </c>
@@ -24517,7 +24519,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1099" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1099" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1099" t="s">
         <v>2194</v>
       </c>
@@ -24531,7 +24533,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1100" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1100" t="s">
         <v>2196</v>
       </c>
@@ -24545,7 +24547,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1101" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1101" t="s">
         <v>2198</v>
       </c>
@@ -24559,7 +24561,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1102" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1102" t="s">
         <v>2200</v>
       </c>
@@ -24573,7 +24575,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1103" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1103" t="s">
         <v>2202</v>
       </c>
@@ -24587,7 +24589,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1104" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1104" t="s">
         <v>2204</v>
       </c>
@@ -24601,7 +24603,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1105" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1105" t="s">
         <v>2206</v>
       </c>
@@ -24615,7 +24617,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1106" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1106" t="s">
         <v>2208</v>
       </c>
@@ -24629,7 +24631,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1107" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1107" t="s">
         <v>2210</v>
       </c>
@@ -24643,7 +24645,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1108" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1108" t="s">
         <v>2212</v>
       </c>
@@ -24657,7 +24659,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1109" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1109" t="s">
         <v>2214</v>
       </c>
@@ -24671,7 +24673,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1110" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1110" t="s">
         <v>2216</v>
       </c>
@@ -24685,7 +24687,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1111" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1111" t="s">
         <v>2218</v>
       </c>
@@ -24699,7 +24701,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1112" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1112" t="s">
         <v>2220</v>
       </c>
@@ -24713,7 +24715,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1113" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1113" t="s">
         <v>2222</v>
       </c>
@@ -24727,7 +24729,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1114" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1114" t="s">
         <v>2224</v>
       </c>
@@ -24741,7 +24743,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1115" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1115" t="s">
         <v>2226</v>
       </c>
@@ -24755,7 +24757,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1116" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1116" t="s">
         <v>2228</v>
       </c>
@@ -24769,7 +24771,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1117" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1117" t="s">
         <v>2230</v>
       </c>
@@ -24783,7 +24785,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1118" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1118" t="s">
         <v>2232</v>
       </c>
@@ -24797,7 +24799,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1119" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1119" t="s">
         <v>2234</v>
       </c>
@@ -24811,7 +24813,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1120" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1120" t="s">
         <v>2236</v>
       </c>
@@ -24825,7 +24827,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1121" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1121" t="s">
         <v>2238</v>
       </c>
@@ -24839,7 +24841,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1122" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1122" t="s">
         <v>2240</v>
       </c>
@@ -24853,7 +24855,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1123" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1123" t="s">
         <v>2242</v>
       </c>
@@ -24867,7 +24869,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1124" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1124" t="s">
         <v>2244</v>
       </c>
@@ -24881,7 +24883,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1125" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1125" t="s">
         <v>2246</v>
       </c>
@@ -24895,7 +24897,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1126" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1126" t="s">
         <v>2248</v>
       </c>
@@ -24909,7 +24911,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1127" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1127" t="s">
         <v>2250</v>
       </c>
@@ -24923,7 +24925,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1128" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1128" t="s">
         <v>2252</v>
       </c>
@@ -24937,7 +24939,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1129" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1129" t="s">
         <v>2254</v>
       </c>
@@ -24951,7 +24953,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1130" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1130" t="s">
         <v>2256</v>
       </c>
@@ -24965,7 +24967,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1131" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1131" t="s">
         <v>2258</v>
       </c>
@@ -24979,7 +24981,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1132" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1132" t="s">
         <v>2260</v>
       </c>
@@ -24993,7 +24995,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1133" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1133" t="s">
         <v>2262</v>
       </c>
@@ -25007,7 +25009,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1134" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1134" t="s">
         <v>2264</v>
       </c>
@@ -25021,7 +25023,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1135" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1135" t="s">
         <v>2266</v>
       </c>
@@ -25035,7 +25037,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1136" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1136" t="s">
         <v>2268</v>
       </c>
@@ -25049,7 +25051,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1137" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1137" t="s">
         <v>2270</v>
       </c>
@@ -25063,7 +25065,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1138" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1138" t="s">
         <v>2272</v>
       </c>
@@ -25077,7 +25079,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1139" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1139" t="s">
         <v>2274</v>
       </c>
@@ -25091,7 +25093,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1140" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1140" t="s">
         <v>2276</v>
       </c>
@@ -25105,7 +25107,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1141" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1141" t="s">
         <v>2278</v>
       </c>
@@ -25119,7 +25121,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1142" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1142" t="s">
         <v>2280</v>
       </c>
@@ -25133,7 +25135,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1143" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1143" t="s">
         <v>2282</v>
       </c>
@@ -25147,7 +25149,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1144" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1144" t="s">
         <v>2284</v>
       </c>
@@ -25161,7 +25163,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1145" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1145" t="s">
         <v>2286</v>
       </c>
@@ -25175,7 +25177,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1146" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1146" t="s">
         <v>2288</v>
       </c>
@@ -25189,7 +25191,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1147" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1147" t="s">
         <v>2290</v>
       </c>
@@ -25203,7 +25205,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1148" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1148" t="s">
         <v>2292</v>
       </c>
@@ -25217,7 +25219,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1149" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1149" t="s">
         <v>2294</v>
       </c>
@@ -25231,7 +25233,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1150" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1150" t="s">
         <v>2296</v>
       </c>
@@ -25245,7 +25247,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1151" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1151" t="s">
         <v>2298</v>
       </c>
@@ -25259,7 +25261,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1152" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1152" t="s">
         <v>2300</v>
       </c>
@@ -25273,7 +25275,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1153" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1153" t="s">
         <v>2302</v>
       </c>
@@ -25287,7 +25289,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1154" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1154" t="s">
         <v>2304</v>
       </c>
@@ -25301,7 +25303,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1155" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1155" t="s">
         <v>2306</v>
       </c>
@@ -25315,7 +25317,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1156" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1156" t="s">
         <v>2308</v>
       </c>
@@ -25329,7 +25331,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1157" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1157" t="s">
         <v>2310</v>
       </c>
@@ -25343,7 +25345,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1158" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1158" t="s">
         <v>2312</v>
       </c>
@@ -25357,7 +25359,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1159" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1159" t="s">
         <v>2314</v>
       </c>
@@ -25371,7 +25373,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1160" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1160" t="s">
         <v>2316</v>
       </c>
@@ -25385,7 +25387,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1161" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1161" t="s">
         <v>2318</v>
       </c>
@@ -25399,7 +25401,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1162" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1162" t="s">
         <v>2320</v>
       </c>
@@ -25413,7 +25415,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1163" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1163" t="s">
         <v>2322</v>
       </c>
@@ -25427,7 +25429,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1164" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1164" t="s">
         <v>2324</v>
       </c>
@@ -25441,7 +25443,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1165" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1165" t="s">
         <v>2326</v>
       </c>
@@ -25455,7 +25457,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1166" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1166" t="s">
         <v>2328</v>
       </c>
@@ -25469,7 +25471,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1167" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1167" t="s">
         <v>2330</v>
       </c>
@@ -25483,7 +25485,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1168" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1168" t="s">
         <v>2332</v>
       </c>
@@ -25497,7 +25499,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1169" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1169" t="s">
         <v>2334</v>
       </c>
@@ -25511,7 +25513,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1170" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1170" t="s">
         <v>2336</v>
       </c>
@@ -25525,7 +25527,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1171" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1171" t="s">
         <v>2338</v>
       </c>
@@ -25539,7 +25541,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1172" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1172" t="s">
         <v>2340</v>
       </c>
@@ -25553,7 +25555,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1173" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1173" t="s">
         <v>2342</v>
       </c>
@@ -25567,7 +25569,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1174" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1174" t="s">
         <v>2344</v>
       </c>
@@ -25581,7 +25583,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1175" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1175" t="s">
         <v>2346</v>
       </c>
@@ -25595,7 +25597,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1176" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1176" t="s">
         <v>2348</v>
       </c>
@@ -25609,7 +25611,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="1177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1177" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1177" t="s">
         <v>2350</v>
       </c>
@@ -25624,7 +25626,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1177" xr:uid="{1307F026-7A87-4365-9C5D-48A9AB587294}"/>
+  <autoFilter ref="A1:F1177" xr:uid="{1307F026-7A87-4365-9C5D-48A9AB587294}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Yes"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
